--- a/notebook/numpy_pandas/V3V5映射关系列表.xlsx
+++ b/notebook/numpy_pandas/V3V5映射关系列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
   <si>
     <t>ChannelId</t>
   </si>
@@ -94,6 +94,9 @@
     <t>广告外部Id（业务字段）</t>
   </si>
   <si>
+    <t>ExtendedId</t>
+  </si>
+  <si>
     <t>39BA4C42-EC18-4B92-BF11-15E034FB8514</t>
   </si>
   <si>
@@ -226,18 +229,6 @@
     <t>广告发布模式（业务字段）</t>
   </si>
   <si>
-    <t>56BF22B5-2B36-47F9-B283-FCAB5CC450ED</t>
-  </si>
-  <si>
-    <t>JobGuid</t>
-  </si>
-  <si>
-    <t>Recruitment_JobAd_JobGuid</t>
-  </si>
-  <si>
-    <t>职位Guid（业务字段）</t>
-  </si>
-  <si>
     <t>69840117-4FC6-4D5A-BDEE-00BE7944266D</t>
   </si>
   <si>
@@ -596,6 +587,21 @@
   </si>
   <si>
     <t>DepartmentName</t>
+  </si>
+  <si>
+    <t>23E9D0E1-B8B2-4342-9A66-A94DF76A5D5A</t>
+  </si>
+  <si>
+    <t>Channel4Category</t>
+  </si>
+  <si>
+    <t>Recruitment_JobAd_Channel4Category</t>
+  </si>
+  <si>
+    <t>招聘类别（招聘门户）</t>
+  </si>
+  <si>
+    <t>Layout</t>
   </si>
   <si>
     <t>8A97706F-333F-4BCC-9309-F2790499FACF</t>
@@ -678,10 +684,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -693,6 +699,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -700,14 +713,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,7 +789,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,22 +797,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,43 +821,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,19 +851,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,49 +893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,13 +917,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,43 +983,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,31 +1025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1073,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,22 +1112,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,6 +1132,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1140,17 +1157,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1159,10 +1165,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1171,100 +1177,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1273,31 +1294,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1632,8 +1638,8 @@
   <sheetPr/>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1771,7 +1777,7 @@
         <v>25</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1785,25 +1791,25 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1817,7 +1823,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1826,16 +1832,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1849,25 +1855,25 @@
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1881,25 +1887,25 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1913,25 +1919,25 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1945,25 +1951,25 @@
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1977,25 +1983,25 @@
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2009,25 +2015,25 @@
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2041,25 +2047,25 @@
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2073,25 +2079,25 @@
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2105,25 +2111,25 @@
         <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2137,25 +2143,25 @@
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2169,25 +2175,25 @@
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2201,25 +2207,25 @@
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2233,25 +2239,25 @@
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2265,25 +2271,25 @@
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2297,25 +2303,25 @@
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2329,25 +2335,25 @@
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2361,25 +2367,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2393,25 +2399,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2425,25 +2431,25 @@
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2457,25 +2463,25 @@
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2489,25 +2495,25 @@
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2521,25 +2527,25 @@
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2553,25 +2559,25 @@
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2585,153 +2591,153 @@
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>138</v>
+      </c>
+      <c r="O30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>320</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>143</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>320</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>148</v>
+      </c>
+      <c r="O32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
-        <v>320</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E33" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="O33" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2745,121 +2751,121 @@
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E34" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>4</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E35" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>163</v>
+      </c>
+      <c r="O35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E36" s="2">
         <v>4</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>168</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E37" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="O37" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2873,92 +2879,92 @@
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E38" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>4</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39">
         <v>4</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="F39" t="s">
         <v>181</v>
       </c>
-      <c r="O39" t="s">
+      <c r="G39" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="H39" t="s">
+        <v>181</v>
+      </c>
+      <c r="I39" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>4</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I40" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>188</v>
+      </c>
+      <c r="O40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:17">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2968,60 +2974,67 @@
       <c r="C41" t="s">
         <v>17</v>
       </c>
-      <c r="D41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="D41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" t="s">
         <v>190</v>
       </c>
-      <c r="H41" t="s">
-        <v>189</v>
-      </c>
-      <c r="I41" t="s">
-        <v>191</v>
-      </c>
-      <c r="O41" t="s">
-        <v>192</v>
-      </c>
+      <c r="Q41" s="2"/>
     </row>
     <row r="42" customFormat="1" spans="1:17">
       <c r="A42">
         <v>4</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="E42" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O42" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q42" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43">
@@ -3034,25 +3047,25 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3066,25 +3079,25 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H44" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O44" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3098,25 +3111,25 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H45" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q45" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3130,25 +3143,25 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G46" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I46" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q46" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3162,25 +3175,25 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
       <c r="F47" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" t="s">
+        <v>171</v>
+      </c>
+      <c r="I47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O47" t="s">
         <v>174</v>
-      </c>
-      <c r="G47" t="s">
-        <v>175</v>
-      </c>
-      <c r="H47" t="s">
-        <v>174</v>
-      </c>
-      <c r="I47" t="s">
-        <v>176</v>
-      </c>
-      <c r="O47" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3194,25 +3207,25 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:17">
@@ -3226,25 +3239,25 @@
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2">
         <v>2</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q49" s="2"/>
     </row>
@@ -3259,25 +3272,25 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E50">
         <v>5</v>
       </c>
       <c r="F50" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" t="s">
+        <v>187</v>
+      </c>
+      <c r="H50" t="s">
+        <v>186</v>
+      </c>
+      <c r="I50" t="s">
+        <v>188</v>
+      </c>
+      <c r="O50" t="s">
         <v>189</v>
-      </c>
-      <c r="G50" t="s">
-        <v>190</v>
-      </c>
-      <c r="H50" t="s">
-        <v>189</v>
-      </c>
-      <c r="I50" t="s">
-        <v>191</v>
-      </c>
-      <c r="O50" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:15">
@@ -3291,25 +3304,25 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E51">
         <v>5</v>
       </c>
       <c r="F51" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" t="s">
+        <v>172</v>
+      </c>
+      <c r="H51" t="s">
+        <v>171</v>
+      </c>
+      <c r="I51" t="s">
+        <v>173</v>
+      </c>
+      <c r="O51" t="s">
         <v>174</v>
-      </c>
-      <c r="G51" t="s">
-        <v>175</v>
-      </c>
-      <c r="H51" t="s">
-        <v>174</v>
-      </c>
-      <c r="I51" t="s">
-        <v>176</v>
-      </c>
-      <c r="O51" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:15">
@@ -3323,25 +3336,25 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E52">
         <v>5</v>
       </c>
       <c r="F52" t="s">
+        <v>186</v>
+      </c>
+      <c r="G52" t="s">
+        <v>187</v>
+      </c>
+      <c r="H52" t="s">
+        <v>186</v>
+      </c>
+      <c r="I52" t="s">
+        <v>188</v>
+      </c>
+      <c r="O52" t="s">
         <v>189</v>
-      </c>
-      <c r="G52" t="s">
-        <v>190</v>
-      </c>
-      <c r="H52" t="s">
-        <v>189</v>
-      </c>
-      <c r="I52" t="s">
-        <v>191</v>
-      </c>
-      <c r="O52" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
